--- a/Handbook/Variables.xlsx
+++ b/Handbook/Variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/Handbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D70F0-7211-6F4E-A974-1D4CB90037E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B4368E-CC9F-C34C-8E5B-C6246124DF62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{7658EBA5-3667-7A4D-92D0-6956DCC031A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="244">
   <si>
     <t>d</t>
   </si>
@@ -129,9 +129,6 @@
     <t>VARIABLE</t>
   </si>
   <si>
-    <t>rho_w</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
@@ -237,21 +234,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>ref_list</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>inst</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>MAT_POINT</t>
   </si>
   <si>
@@ -288,18 +270,6 @@
     <t>MODEL</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Number of material of node n</t>
-  </si>
-  <si>
-    <t>Number of material of element e</t>
-  </si>
-  <si>
     <t>Number of material models</t>
   </si>
   <si>
@@ -543,9 +513,6 @@
     <t>Initial mesh size</t>
   </si>
   <si>
-    <t>Initial mes size in nodes</t>
-  </si>
-  <si>
     <t>Dimension of b matrix</t>
   </si>
   <si>
@@ -555,9 +522,6 @@
     <t>Dimension of def. gradient vector</t>
   </si>
   <si>
-    <t>Density of the water</t>
-  </si>
-  <si>
     <t>Gravity</t>
   </si>
   <si>
@@ -570,9 +534,6 @@
     <t>Time in each step</t>
   </si>
   <si>
-    <t>Time in each plot step</t>
-  </si>
-  <si>
     <t>alpha f (Time integration scheme)</t>
   </si>
   <si>
@@ -693,9 +654,6 @@
     <t>Neighbor nodes</t>
   </si>
   <si>
-    <t>Streches</t>
-  </si>
-  <si>
     <t>Jacobian</t>
   </si>
   <si>
@@ -705,27 +663,6 @@
     <t>Xi coordinates (Lambda in LME)</t>
   </si>
   <si>
-    <t>Name of the output file</t>
-  </si>
-  <si>
-    <t>Number of output lists</t>
-  </si>
-  <si>
-    <t>Instantaneous vale of the output</t>
-  </si>
-  <si>
-    <t>Ones in nodes where calculate reaction</t>
-  </si>
-  <si>
-    <t>Vector filled with inst values</t>
-  </si>
-  <si>
-    <t>First column (1 load, 2 reaction)</t>
-  </si>
-  <si>
-    <t>Second column: number of applied load</t>
-  </si>
-  <si>
     <t>STEP0</t>
   </si>
   <si>
@@ -733,6 +670,102 @@
   </si>
   <si>
     <t>Initial calculations flag</t>
+  </si>
+  <si>
+    <t>Initial mesh size in nodes</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>Material id of every mat_point</t>
+  </si>
+  <si>
+    <t>OutputType</t>
+  </si>
+  <si>
+    <t>List of types of outputs</t>
+  </si>
+  <si>
+    <t>BLOCKS</t>
+  </si>
+  <si>
+    <t>Total blocks</t>
+  </si>
+  <si>
+    <t>Name of the file</t>
+  </si>
+  <si>
+    <t>DYN</t>
+  </si>
+  <si>
+    <t>Dynamic or static</t>
+  </si>
+  <si>
+    <t>dPw</t>
+  </si>
+  <si>
+    <t>Pore pressure gradient</t>
+  </si>
+  <si>
+    <t>Plot time</t>
+  </si>
+  <si>
+    <t>epsv</t>
+  </si>
+  <si>
+    <t>Dev. Plastic multiplier</t>
+  </si>
+  <si>
+    <t>Vol. Plastic multiplier</t>
+  </si>
+  <si>
+    <t>gamma_nds</t>
+  </si>
+  <si>
+    <t>Dev. Plastic multiplier in the nodes</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>eta of PZ</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>H of PZ</t>
+  </si>
+  <si>
+    <t>position of material points</t>
+  </si>
+  <si>
+    <t>Ps</t>
+  </si>
+  <si>
+    <t>Qs</t>
+  </si>
+  <si>
+    <t>Invariant P</t>
+  </si>
+  <si>
+    <t>Invariant Q</t>
+  </si>
+  <si>
+    <t>ste_p</t>
+  </si>
+  <si>
+    <t>Current plot step</t>
+  </si>
+  <si>
+    <t>pw</t>
+  </si>
+  <si>
+    <t>dpw</t>
+  </si>
+  <si>
+    <t>Stretches</t>
   </si>
 </sst>
 </file>
@@ -888,6 +921,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,22 +955,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1241,8 +1274,8 @@
   </sheetPr>
   <dimension ref="B1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1260,945 +1293,965 @@
   <sheetData>
     <row r="1" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="12"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="6"/>
       <c r="K4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="15" t="s">
+      <c r="G32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G33" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="G34" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="C40" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="G40" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="G41" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="17"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15" t="s">
+      <c r="H42" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="17"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>222</v>
+      <c r="I42" s="15" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Handbook/Variables.xlsx
+++ b/Handbook/Variables.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/Handbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B4368E-CC9F-C34C-8E5B-C6246124DF62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A5AA46-91B9-5E43-ADD3-341F7204C33B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{7658EBA5-3667-7A4D-92D0-6956DCC031A5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{7658EBA5-3667-7A4D-92D0-6956DCC031A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$2:$I$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$2:$I$58</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="297">
   <si>
     <t>d</t>
   </si>
@@ -147,12 +147,6 @@
     <t>NR_iterations</t>
   </si>
   <si>
-    <t>abs_tolerance</t>
-  </si>
-  <si>
-    <t>rel_tolerance</t>
-  </si>
-  <si>
     <t>NR</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>Time_final</t>
   </si>
   <si>
-    <t>INITIAL_d</t>
-  </si>
-  <si>
     <t>UW</t>
   </si>
   <si>
@@ -183,9 +174,6 @@
     <t>INIT_STEP</t>
   </si>
   <si>
-    <t>INITIAL_COND</t>
-  </si>
-  <si>
     <t>F_BAR_W</t>
   </si>
   <si>
@@ -228,9 +216,6 @@
     <t>P0</t>
   </si>
   <si>
-    <t>OUTPUT</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
@@ -276,9 +261,6 @@
     <t>Material parameters</t>
   </si>
   <si>
-    <t>Flag of the employed model</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
@@ -324,12 +306,6 @@
     <t>am</t>
   </si>
   <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
     <t>theta</t>
   </si>
   <si>
@@ -390,9 +366,6 @@
     <t>ext_acce</t>
   </si>
   <si>
-    <t>load_mult</t>
-  </si>
-  <si>
     <t>Multiplier of very step</t>
   </si>
   <si>
@@ -402,12 +375,6 @@
     <t>Number of external forces</t>
   </si>
   <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
     <t>Save file each SAVE_F</t>
   </si>
   <si>
@@ -417,12 +384,6 @@
     <t>Iterations of Newton Raphson</t>
   </si>
   <si>
-    <t>Abslute tolerance</t>
-  </si>
-  <si>
-    <t>Relative tolerance</t>
-  </si>
-  <si>
     <t>Update K every NR steps</t>
   </si>
   <si>
@@ -438,9 +399,6 @@
     <t>Final time</t>
   </si>
   <si>
-    <t>Initial displacements</t>
-  </si>
-  <si>
     <t>Formulation U-UW-Upw...</t>
   </si>
   <si>
@@ -531,9 +489,6 @@
     <t>Element here node n is in</t>
   </si>
   <si>
-    <t>Time in each step</t>
-  </si>
-  <si>
     <t>alpha f (Time integration scheme)</t>
   </si>
   <si>
@@ -549,9 +504,6 @@
     <t>theta (Time integration scheme)</t>
   </si>
   <si>
-    <t>gamma (Time integration scheme)</t>
-  </si>
-  <si>
     <t>Deformation gradient</t>
   </si>
   <si>
@@ -606,18 +558,12 @@
     <t>Increment of plastic multiplier</t>
   </si>
   <si>
-    <t>Plastic multiplier</t>
-  </si>
-  <si>
     <t>Size of the yield surface</t>
   </si>
   <si>
     <t>Reference yield surface (viscosity)</t>
   </si>
   <si>
-    <t>Initial pressure</t>
-  </si>
-  <si>
     <t>GLOBAL CONSTANTS</t>
   </si>
   <si>
@@ -663,15 +609,9 @@
     <t>Xi coordinates (Lambda in LME)</t>
   </si>
   <si>
-    <t>STEP0</t>
-  </si>
-  <si>
     <t>Number of the initial step</t>
   </si>
   <si>
-    <t>Initial calculations flag</t>
-  </si>
-  <si>
     <t>Initial mesh size in nodes</t>
   </si>
   <si>
@@ -693,9 +633,6 @@
     <t>Total blocks</t>
   </si>
   <si>
-    <t>Name of the file</t>
-  </si>
-  <si>
     <t>DYN</t>
   </si>
   <si>
@@ -729,15 +666,9 @@
     <t>eta</t>
   </si>
   <si>
-    <t>eta of PZ</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
-    <t>H of PZ</t>
-  </si>
-  <si>
     <t>position of material points</t>
   </si>
   <si>
@@ -766,6 +697,234 @@
   </si>
   <si>
     <t>Stretches</t>
+  </si>
+  <si>
+    <t>elem_c</t>
+  </si>
+  <si>
+    <t>Corner Connectivity (Quadratic elements)</t>
+  </si>
+  <si>
+    <t>ELEMENT</t>
+  </si>
+  <si>
+    <t>Element type</t>
+  </si>
+  <si>
+    <t>Maximum height</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>mat_point belongs to this body</t>
+  </si>
+  <si>
+    <t>{BLOCK}</t>
+  </si>
+  <si>
+    <t>near_p</t>
+  </si>
+  <si>
+    <t>Flag of the employed model / Fracture</t>
+  </si>
+  <si>
+    <t>delta / gamma</t>
+  </si>
+  <si>
+    <t>alpha / beta</t>
+  </si>
+  <si>
+    <t>Small strain tensor</t>
+  </si>
+  <si>
+    <t>Es_e</t>
+  </si>
+  <si>
+    <t>Elastic small strain tensor</t>
+  </si>
+  <si>
+    <t>Es_w</t>
+  </si>
+  <si>
+    <t>Water small strain tensor</t>
+  </si>
+  <si>
+    <t>Eq. Volumetric plastic strain</t>
+  </si>
+  <si>
+    <t>Eq. Shear Plastic strain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial pressure / vol-shear strain </t>
+  </si>
+  <si>
+    <t>Hardening (PZ)</t>
+  </si>
+  <si>
+    <t>eta_B (PZ)</t>
+  </si>
+  <si>
+    <t>Strain energy</t>
+  </si>
+  <si>
+    <t>Damage (0,1)</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>Epsilon neighborhood (Eigenerosion)</t>
+  </si>
+  <si>
+    <t>Pstab</t>
+  </si>
+  <si>
+    <t>Stabilization parameter U-Pw</t>
+  </si>
+  <si>
+    <t>Steps (each block)</t>
+  </si>
+  <si>
+    <t>DOF*nodes</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Element Type</t>
+  </si>
+  <si>
+    <t>BODIES</t>
+  </si>
+  <si>
+    <t>Number of bodies</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Name of the file (each block)</t>
+  </si>
+  <si>
+    <t>d_tolerance</t>
+  </si>
+  <si>
+    <t>Displacement tolerance</t>
+  </si>
+  <si>
+    <t>r_tolerance</t>
+  </si>
+  <si>
+    <t>Forces tolerance</t>
+  </si>
+  <si>
+    <t>PHASES</t>
+  </si>
+  <si>
+    <t>U-W-Pw and number of each of them</t>
+  </si>
+  <si>
+    <t>FRAC</t>
+  </si>
+  <si>
+    <t>Fracture flag</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>Small strain flag</t>
+  </si>
+  <si>
+    <t>INITIAL_PORE_PRESSURE</t>
+  </si>
+  <si>
+    <t>ext_forces_w</t>
+  </si>
+  <si>
+    <t>External water forces vector</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>tied</t>
+  </si>
+  <si>
+    <t>tied nodes</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Type of boundary condition</t>
+  </si>
+  <si>
+    <t>OutputList</t>
+  </si>
+  <si>
+    <t>Output results</t>
+  </si>
+  <si>
+    <t>Water strain</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Energy D(dissipated) - W (strain) - K (kinetic)</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Summation of forces of the specimen</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Prohibited near nodes (separation between)</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>ste</t>
+  </si>
+  <si>
+    <t>Current step</t>
+  </si>
+  <si>
+    <t>Current step plot</t>
+  </si>
+  <si>
+    <t>BLCK</t>
+  </si>
+  <si>
+    <t>Block of calculation</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>time increment</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Dissipated energy</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>step failed</t>
   </si>
 </sst>
 </file>
@@ -917,10 +1076,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -930,13 +1087,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,6 +1108,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1272,987 +1429,1226 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M42"/>
+  <dimension ref="B1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="35.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="38.5" customWidth="1"/>
-    <col min="15" max="15" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="25.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="38.5" style="6" customWidth="1"/>
+    <col min="10" max="14" width="10.83203125" style="6"/>
+    <col min="15" max="15" width="29.1640625" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="H10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="F23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="H25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="H33" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+      <c r="D39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="5"/>
+      <c r="H39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="K4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="G44" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="F45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="9"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="20"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="G48" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="20"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="20"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="20"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="20"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="20"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="20"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="20"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>208</v>
-      </c>
+      <c r="G54" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="20"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="20"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="20"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="21"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2260,6 +2656,6 @@
     <mergeCell ref="F2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>